--- a/ProjectDocs/Artifacts/SymCheck Test Cases.xlsx
+++ b/ProjectDocs/Artifacts/SymCheck Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{86A26AC4-444C-4A4B-B8F6-2D3AAE1BB012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D6568455-395B-964C-965C-0FF859DB6E02}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{86A26AC4-444C-4A4B-B8F6-2D3AAE1BB012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3BB065D-6D8B-6E4E-A274-AA52792EEE26}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="20180" xr2:uid="{198411F0-8BFD-344D-B836-3B43D3A16DD4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20180" xr2:uid="{198411F0-8BFD-344D-B836-3B43D3A16DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
   <si>
     <t>Test Cases</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Browse the Website</t>
   </si>
   <si>
-    <t xml:space="preserve">User should be able to access the homepage of the website </t>
-  </si>
-  <si>
     <t>Once directed to site, you will first be directed to the homepage of SymCheck</t>
   </si>
   <si>
@@ -74,84 +71,51 @@
     <t>Locate the Get Diagnosed Link</t>
   </si>
   <si>
-    <t>User should be able to locate the link to access the upload page</t>
-  </si>
-  <si>
     <t>Click link Get Diagnosis Now to be redirected to upload page</t>
   </si>
   <si>
-    <t>User Input Page</t>
-  </si>
-  <si>
     <t>Locate the Submit Photo Link</t>
   </si>
   <si>
-    <t>User should be able to locate the link to submit photo</t>
-  </si>
-  <si>
     <t>Next to the upload image button there is a button to submit the photo</t>
   </si>
   <si>
     <t>Choose file shows up</t>
   </si>
   <si>
-    <t>User should see choose file option, to upload photo to website</t>
-  </si>
-  <si>
     <t>Once you click the choose file button you will be redirected to upload a file from your computer</t>
   </si>
   <si>
     <t>Ability to cancel uploading file</t>
   </si>
   <si>
-    <t>User should be able to cancel the file from being uploaded</t>
-  </si>
-  <si>
     <t>When selecting the file to upload you are prompted with the option to cancel. If you click cancel the file won't upload to the page.</t>
   </si>
   <si>
     <t>Verify file is uploaded</t>
   </si>
   <si>
-    <t>User should not be able to click on the submit button without submitting a file</t>
-  </si>
-  <si>
     <t>If you try to select the submit button with uploading an image, you are prompted to please select a file</t>
   </si>
   <si>
     <t>Verify file is correct</t>
   </si>
   <si>
-    <t>User should be promoted to verify uploaded file is correct</t>
-  </si>
-  <si>
-    <t>When uploading the file, the user can see what image they are uploading and cancel the process if it is not the right image.</t>
-  </si>
-  <si>
     <t>Submit to website for analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">User should be able to click submit to send correct photo to be analyzed </t>
-  </si>
-  <si>
     <t>Once uploading the image click the submit button and the algorithm begins analyzing the photo for results</t>
   </si>
   <si>
     <t>Locate the Nearest ER Link</t>
   </si>
   <si>
-    <t>User should be able to locate and click the Nearest ER link to access an interactive map</t>
-  </si>
-  <si>
     <t>Under the logo, there is the Nearest ER link. Clicking this button, you can access google maps to show hospitals nearby.</t>
   </si>
   <si>
     <t>Return to Homepage Link</t>
   </si>
   <si>
-    <t>User should be able to return to the homepage when clicking the Home button</t>
-  </si>
-  <si>
     <t>At the bottom of the page when clicking the home button, you are redirected to the homepage of Symcheck</t>
   </si>
   <si>
@@ -161,18 +125,12 @@
     <t>Check for image file extension</t>
   </si>
   <si>
-    <t>User can only upload certain types of file extensions (Verify if incorrect)</t>
-  </si>
-  <si>
     <t>When uploading a file you can only open a jpg or png. No other extensions will be allowed to be uploaded</t>
   </si>
   <si>
     <t>Check for size of the image file</t>
   </si>
   <si>
-    <t>If file is too large to upload, the user must be notified</t>
-  </si>
-  <si>
     <t>If file is too large, it will be resized to fit a specific measurement before being processed in the Machine Learning</t>
   </si>
   <si>
@@ -191,45 +149,30 @@
     <t>Results appear after analysis complete</t>
   </si>
   <si>
-    <t>User will see percentage that they have the illness</t>
-  </si>
-  <si>
     <t>In the Results box it displays the likely hood of the image being an illness.</t>
   </si>
   <si>
     <t>About the disease</t>
   </si>
   <si>
-    <t>User will see facts about the disease they have been diagnosed with</t>
-  </si>
-  <si>
     <t>If the image is likely to be Chickenpox or Pink Eye, then the About box will give information about the illness and a link to the CDC website. If the image is not likely to be chickenpox or Pink Eye, then the section will say that the algorithm isn't detecting an illness</t>
   </si>
   <si>
     <t>When to see a Doctor</t>
   </si>
   <si>
-    <t>User will see when it is best advised to see a doctor</t>
-  </si>
-  <si>
     <t>In the When To See A Doctor section, it will state when it is best advised to seek medical attention and includes the symptoms that can occur or become worse</t>
   </si>
   <si>
     <t xml:space="preserve">Nearest ER </t>
   </si>
   <si>
-    <t>If selected, user will be able to access an interactive map</t>
-  </si>
-  <si>
     <t>Towards the bottom of the page there is a Nearest Emergency Room section. Where you can click the Nearest Emergency Room button and google maps pops up with Emergency Rooms nearby your location.</t>
   </si>
   <si>
     <t>New Diagnosis Link</t>
   </si>
   <si>
-    <t>User should be able to access the user input page for a new diagnosis</t>
-  </si>
-  <si>
     <t>In the top right corner there is a button called new diagnosis, where you will be redirected to the upload image page to upload a new image to diagnose</t>
   </si>
   <si>
@@ -239,42 +182,21 @@
     <t>Error Message</t>
   </si>
   <si>
-    <t>User should see an error message if there is any issue with their uploaded image.</t>
-  </si>
-  <si>
-    <t>If the user deletes their browser history and tries to refresh the page, the results won't exist anymore and this will cause the user to submit photo again.</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t>Send user feedback</t>
-  </si>
-  <si>
-    <t>User can click button to send feedback about application</t>
-  </si>
-  <si>
     <t>Located at the bottom of the Results Page, there is a Feedback section. You can click Contact Us Here to send the team a message.</t>
   </si>
   <si>
     <t>Fill out feedback</t>
   </si>
   <si>
-    <t>User will be prompted to type their feedback about the application</t>
-  </si>
-  <si>
     <t>Once the Contact Us Here was clicked you will be redirected to an email where the email address and subject are already filled out. All you have to do is fill out the message you would like to send.</t>
   </si>
   <si>
     <t>Submit Feedback</t>
   </si>
   <si>
-    <t>User can submit feedback and will have a response within 24 hours</t>
-  </si>
-  <si>
-    <t>Once the email is ready to be sent, the user can send the email and the team will respond back shortly.</t>
-  </si>
-  <si>
     <t>HID-29</t>
   </si>
   <si>
@@ -332,9 +254,6 @@
     <t>Image reflection</t>
   </si>
   <si>
-    <t>User can see their uploaded image</t>
-  </si>
-  <si>
     <t>pinkeye image file</t>
   </si>
   <si>
@@ -344,12 +263,6 @@
     <t xml:space="preserve">Chatbot </t>
   </si>
   <si>
-    <t>User can interact with SymBot and receive a response</t>
-  </si>
-  <si>
-    <t>SymBot responds on all user inputs such as hello, what is chickenpox, how can I speak to creaters of symcheck, etc.</t>
-  </si>
-  <si>
     <t>Hi, chicken pox, pink eye</t>
   </si>
   <si>
@@ -371,10 +284,151 @@
     <t>Access via URL</t>
   </si>
   <si>
-    <t>https://symcheck.jazzymaya.repl.co/</t>
-  </si>
-  <si>
-    <t>Users can use SymCheck without any issues</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Repl.it can no longer support tensorflow installation. Need to use a new cloud hosting provider</t>
+  </si>
+  <si>
+    <t>HID-81</t>
+  </si>
+  <si>
+    <t>Questions and Answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient should be able to access the homepage of the website </t>
+  </si>
+  <si>
+    <t>Patient should be able to locate the link to access the upload page</t>
+  </si>
+  <si>
+    <t>Patient can interact with SymBot and receive a response</t>
+  </si>
+  <si>
+    <t>Patient Input Page</t>
+  </si>
+  <si>
+    <t>Patient should be able to locate the link to submit photo</t>
+  </si>
+  <si>
+    <t>Patient should see choose file option, to upload photo to website</t>
+  </si>
+  <si>
+    <t>Patient can see their uploaded image</t>
+  </si>
+  <si>
+    <t>Patient should be able to cancel the file from being uploaded</t>
+  </si>
+  <si>
+    <t>Patient should not be able to click on the submit button without submitting a file</t>
+  </si>
+  <si>
+    <t>Patient should be promoted to verify uploaded file is correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient should be able to click submit to send correct photo to be analyzed </t>
+  </si>
+  <si>
+    <t>Patient should be able to locate and click the Nearest ER link to access an interactive map</t>
+  </si>
+  <si>
+    <t>Patient should be able to return to the homepage when clicking the Home button</t>
+  </si>
+  <si>
+    <t>Patient can only upload certain types of file extensions (Verify if incorrect)</t>
+  </si>
+  <si>
+    <t>Patient will see percentage that they have the illness</t>
+  </si>
+  <si>
+    <t>Patient will see facts about the disease they have been diagnosed with</t>
+  </si>
+  <si>
+    <t>Patient will see when it is best advised to see a doctor</t>
+  </si>
+  <si>
+    <t>Patient should see an error message if there is any issue with their uploaded image.</t>
+  </si>
+  <si>
+    <t>Patient can click button to send feedback about application</t>
+  </si>
+  <si>
+    <t>Patient will be prompted to type their feedback about the application</t>
+  </si>
+  <si>
+    <t>Patient can submit feedback and will have a response within 24 hours</t>
+  </si>
+  <si>
+    <t>Patients can use SymCheck without any issues</t>
+  </si>
+  <si>
+    <t>SymBot responds on all patient inputs such as hello, what is chickenpox, how can I speak to creaters of symcheck, etc.</t>
+  </si>
+  <si>
+    <t>When uploading the file, the patient can see what image they are uploading and cancel the process if it is not the right image.</t>
+  </si>
+  <si>
+    <t>If file is too large to upload, the patient must be notified</t>
+  </si>
+  <si>
+    <t>If selected, patient will be able to access an interactive map</t>
+  </si>
+  <si>
+    <t>Patient should be able to access the patient input page for a new diagnosis</t>
+  </si>
+  <si>
+    <t>If the patient deletes their browser history and tries to refresh the page, the results won't exist anymore and this will cause the patient to submit photo again.</t>
+  </si>
+  <si>
+    <t>Send patient feedback</t>
+  </si>
+  <si>
+    <t>Once the email is ready to be sent, the patient can send the email and the team will respond back shortly.</t>
+  </si>
+  <si>
+    <t>Patient can see listed questions and respective answers</t>
+  </si>
+  <si>
+    <t>Return to Home</t>
+  </si>
+  <si>
+    <t>Find Nearest ER</t>
+  </si>
+  <si>
+    <t>New Diagnosis</t>
+  </si>
+  <si>
+    <t>Patient can return to the homepage</t>
+  </si>
+  <si>
+    <t>Patient can access the interactive map with nearest ERs shown</t>
+  </si>
+  <si>
+    <t>Patient can send feedback via email to SymCheck developers</t>
+  </si>
+  <si>
+    <t>Patient can access the image upload page</t>
+  </si>
+  <si>
+    <t>Patient is returned to the homepage</t>
+  </si>
+  <si>
+    <t>Patient can use the emergency ER feature</t>
+  </si>
+  <si>
+    <t>Patient sees listed questions and respective answers</t>
+  </si>
+  <si>
+    <t>Patient can send an email to symcheckapp@gmail.com</t>
+  </si>
+  <si>
+    <t>Patient is rerouted to the image upload page</t>
+  </si>
+  <si>
+    <t>"Test"</t>
+  </si>
+  <si>
+    <t>FAQPage</t>
   </si>
 </sst>
 </file>
@@ -515,7 +569,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -546,14 +600,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -877,10 +934,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -894,22 +951,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
@@ -932,20 +989,20 @@
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -953,20 +1010,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="40" x14ac:dyDescent="0.25">
@@ -974,261 +1031,247 @@
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="41" thickTop="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -1242,340 +1285,312 @@
     </row>
     <row r="18" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="41" thickTop="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="100" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="61" thickTop="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1587,58 +1602,244 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="35" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>108</v>
+    <row r="35" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>10</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" xr:uid="{46C50B55-483E-B848-B9DB-3B1C115F6BDD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="34" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004E81107FE0A704B8458C943278B4E1F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5d7a2437a23173ad2037d1f1a5defc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcb18cd9-2614-41de-a438-05e8f58d2b4e" xmlns:ns4="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d70d1cc08310b67696d51f78b76f76" ns3:_="" ns4:_="">
     <xsd:import namespace="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
@@ -1849,32 +2050,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265EAE24-5D6E-4DCE-929A-8ED3BA1E1FE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108A69B9-66F7-4144-B352-4997C65E7F0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
-    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E89E5E-5991-4466-9B54-C4A54C1D7618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1891,4 +2082,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108A69B9-66F7-4144-B352-4997C65E7F0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
+    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265EAE24-5D6E-4DCE-929A-8ED3BA1E1FE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ProjectDocs/Artifacts/SymCheck Test Cases.xlsx
+++ b/ProjectDocs/Artifacts/SymCheck Test Cases.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Sprint7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="13_ncr:1_{86A26AC4-444C-4A4B-B8F6-2D3AAE1BB012}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C3BB065D-6D8B-6E4E-A274-AA52792EEE26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E71BF8B-3DFD-4DEC-A75D-B8D3A87EFF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20180" xr2:uid="{198411F0-8BFD-344D-B836-3B43D3A16DD4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{198411F0-8BFD-344D-B836-3B43D3A16DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCases!$A$1:$G$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCases!$A$1:$G$44</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="160">
   <si>
     <t>Test Cases</t>
   </si>
@@ -68,18 +60,9 @@
     <t>P</t>
   </si>
   <si>
-    <t>Locate the Get Diagnosed Link</t>
-  </si>
-  <si>
-    <t>Click link Get Diagnosis Now to be redirected to upload page</t>
-  </si>
-  <si>
     <t>Locate the Submit Photo Link</t>
   </si>
   <si>
-    <t>Next to the upload image button there is a button to submit the photo</t>
-  </si>
-  <si>
     <t>Choose file shows up</t>
   </si>
   <si>
@@ -110,15 +93,9 @@
     <t>Locate the Nearest ER Link</t>
   </si>
   <si>
-    <t>Under the logo, there is the Nearest ER link. Clicking this button, you can access google maps to show hospitals nearby.</t>
-  </si>
-  <si>
     <t>Return to Homepage Link</t>
   </si>
   <si>
-    <t>At the bottom of the page when clicking the home button, you are redirected to the homepage of Symcheck</t>
-  </si>
-  <si>
     <t xml:space="preserve">Image functionality </t>
   </si>
   <si>
@@ -149,9 +126,6 @@
     <t>Results appear after analysis complete</t>
   </si>
   <si>
-    <t>In the Results box it displays the likely hood of the image being an illness.</t>
-  </si>
-  <si>
     <t>About the disease</t>
   </si>
   <si>
@@ -167,36 +141,12 @@
     <t xml:space="preserve">Nearest ER </t>
   </si>
   <si>
-    <t>Towards the bottom of the page there is a Nearest Emergency Room section. Where you can click the Nearest Emergency Room button and google maps pops up with Emergency Rooms nearby your location.</t>
-  </si>
-  <si>
-    <t>New Diagnosis Link</t>
-  </si>
-  <si>
-    <t>In the top right corner there is a button called new diagnosis, where you will be redirected to the upload image page to upload a new image to diagnose</t>
-  </si>
-  <si>
-    <t>In the top left corner there is a Home button, when clicking this button you will be redirected to SymChecks homepage</t>
-  </si>
-  <si>
     <t>Error Message</t>
   </si>
   <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t>Located at the bottom of the Results Page, there is a Feedback section. You can click Contact Us Here to send the team a message.</t>
-  </si>
-  <si>
-    <t>Fill out feedback</t>
-  </si>
-  <si>
-    <t>Once the Contact Us Here was clicked you will be redirected to an email where the email address and subject are already filled out. All you have to do is fill out the message you would like to send.</t>
-  </si>
-  <si>
-    <t>Submit Feedback</t>
-  </si>
-  <si>
     <t>HID-29</t>
   </si>
   <si>
@@ -233,18 +183,12 @@
     <t>HID-40</t>
   </si>
   <si>
-    <t>HID-41</t>
-  </si>
-  <si>
     <t>HID-42</t>
   </si>
   <si>
     <t>HID-44</t>
   </si>
   <si>
-    <t>"This is a great application"</t>
-  </si>
-  <si>
     <t>chickenpox image file</t>
   </si>
   <si>
@@ -254,9 +198,6 @@
     <t>Image reflection</t>
   </si>
   <si>
-    <t>pinkeye image file</t>
-  </si>
-  <si>
     <t>After you select an image to upload, the page shows you the uploaded image</t>
   </si>
   <si>
@@ -275,21 +216,6 @@
     <t>HID-58</t>
   </si>
   <si>
-    <t>Cloud Access</t>
-  </si>
-  <si>
-    <t>HID-62</t>
-  </si>
-  <si>
-    <t>Access via URL</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Repl.it can no longer support tensorflow installation. Need to use a new cloud hosting provider</t>
-  </si>
-  <si>
     <t>HID-81</t>
   </si>
   <si>
@@ -332,9 +258,6 @@
     <t>Patient should be able to locate and click the Nearest ER link to access an interactive map</t>
   </si>
   <si>
-    <t>Patient should be able to return to the homepage when clicking the Home button</t>
-  </si>
-  <si>
     <t>Patient can only upload certain types of file extensions (Verify if incorrect)</t>
   </si>
   <si>
@@ -350,21 +273,6 @@
     <t>Patient should see an error message if there is any issue with their uploaded image.</t>
   </si>
   <si>
-    <t>Patient can click button to send feedback about application</t>
-  </si>
-  <si>
-    <t>Patient will be prompted to type their feedback about the application</t>
-  </si>
-  <si>
-    <t>Patient can submit feedback and will have a response within 24 hours</t>
-  </si>
-  <si>
-    <t>Patients can use SymCheck without any issues</t>
-  </si>
-  <si>
-    <t>SymBot responds on all patient inputs such as hello, what is chickenpox, how can I speak to creaters of symcheck, etc.</t>
-  </si>
-  <si>
     <t>When uploading the file, the patient can see what image they are uploading and cancel the process if it is not the right image.</t>
   </si>
   <si>
@@ -374,18 +282,9 @@
     <t>If selected, patient will be able to access an interactive map</t>
   </si>
   <si>
-    <t>Patient should be able to access the patient input page for a new diagnosis</t>
-  </si>
-  <si>
     <t>If the patient deletes their browser history and tries to refresh the page, the results won't exist anymore and this will cause the patient to submit photo again.</t>
   </si>
   <si>
-    <t>Send patient feedback</t>
-  </si>
-  <si>
-    <t>Once the email is ready to be sent, the patient can send the email and the team will respond back shortly.</t>
-  </si>
-  <si>
     <t>Patient can see listed questions and respective answers</t>
   </si>
   <si>
@@ -404,38 +303,218 @@
     <t>Patient can access the interactive map with nearest ERs shown</t>
   </si>
   <si>
-    <t>Patient can send feedback via email to SymCheck developers</t>
-  </si>
-  <si>
     <t>Patient can access the image upload page</t>
   </si>
   <si>
-    <t>Patient is returned to the homepage</t>
-  </si>
-  <si>
-    <t>Patient can use the emergency ER feature</t>
-  </si>
-  <si>
     <t>Patient sees listed questions and respective answers</t>
   </si>
   <si>
-    <t>Patient can send an email to symcheckapp@gmail.com</t>
-  </si>
-  <si>
-    <t>Patient is rerouted to the image upload page</t>
-  </si>
-  <si>
-    <t>"Test"</t>
-  </si>
-  <si>
     <t>FAQPage</t>
+  </si>
+  <si>
+    <t>Locate the Upload Image Link</t>
+  </si>
+  <si>
+    <t>HID-82</t>
+  </si>
+  <si>
+    <t>NavBar</t>
+  </si>
+  <si>
+    <t>Patient can move to all pages on site using the NavBar</t>
+  </si>
+  <si>
+    <t>Once redirected to the Upload Page beside to the upload image button there is a button to submit the photo</t>
+  </si>
+  <si>
+    <t>Once redirected to Upload Page the patient can easily find the Upload Image button where they can upload an image for diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient should be able to return to the homepage when clicking Home </t>
+  </si>
+  <si>
+    <t>Click any link in NavBar and the user is redirected to the Home, Upload, FAQ, or About Us Page</t>
+  </si>
+  <si>
+    <t>HID-59</t>
+  </si>
+  <si>
+    <t>AdvancedPrediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directed to Advance Prediction </t>
+  </si>
+  <si>
+    <t>Patient will be directed to Advance Prediction Page after submitting photo</t>
+  </si>
+  <si>
+    <t>Chickenpox</t>
+  </si>
+  <si>
+    <t>Patient will be asked questions about chickenpox</t>
+  </si>
+  <si>
+    <t>Pink Eye</t>
+  </si>
+  <si>
+    <t>Patient will be asked questions about pink eye</t>
+  </si>
+  <si>
+    <t>pink eye image file</t>
+  </si>
+  <si>
+    <t>After submitting a chickenpox photo, the questions on the Advance Prediction are based upon this illness.</t>
+  </si>
+  <si>
+    <t>After submitting a pink eye photo, the questions on the Advance Prediction are based upon this illness.</t>
+  </si>
+  <si>
+    <t>Submit Answers</t>
+  </si>
+  <si>
+    <t>Skip to Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient can submit answers to Advanced Questions </t>
+  </si>
+  <si>
+    <t>Once completing all questions, you can submit the answers to help further diagnosis your illness.</t>
+  </si>
+  <si>
+    <t>Patient can skip Advance Questions and go to Results Page</t>
+  </si>
+  <si>
+    <t>Results Page</t>
+  </si>
+  <si>
+    <t>Patient will see results based on Advanced Page</t>
+  </si>
+  <si>
+    <t>Either after answering advanced prediction questions or skipping to results page you will see the results of the image you uploaded</t>
+  </si>
+  <si>
+    <t>In the Results section it displays the likely hood of the uploaded image being an illness.</t>
+  </si>
+  <si>
+    <t>At the top of the page, under the NavBar there is a Nearest Emergency Room section. Where you can click the Nearest Emergency Room button and google maps pops up with Emergency Rooms nearby your location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to Homepage </t>
+  </si>
+  <si>
+    <t>chickenpox, pink eye</t>
+  </si>
+  <si>
+    <t>At the top of the page within the NavBar when selecting Upload, you are redirected to the homepage of Symcheck</t>
+  </si>
+  <si>
+    <t>At the top of the page within the NavBar when selecting Home, you are redirected to the homepage of Symcheck</t>
+  </si>
+  <si>
+    <t>AboutUs</t>
+  </si>
+  <si>
+    <t>HID-93</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>Patient can locate About Us page</t>
+  </si>
+  <si>
+    <t>In the NavBar you will find About Us, once selected you will be redirected to this page</t>
+  </si>
+  <si>
+    <t>What is SYMCheck</t>
+  </si>
+  <si>
+    <t>Patient can see what SYMCheck Application does</t>
+  </si>
+  <si>
+    <t>Underneath the NavBar you will see a short description about what the application does</t>
+  </si>
+  <si>
+    <t>Complete All Answers</t>
+  </si>
+  <si>
+    <t>Patient will have to complete all answers</t>
+  </si>
+  <si>
+    <t>When choosing to answer the advanced questions must answer all of them to submit and move on to the results. If you don't answer one question an alert will pop up to answer that question</t>
+  </si>
+  <si>
+    <t>Meet the Team</t>
+  </si>
+  <si>
+    <t>Patient can see all of the team members who created SYMCheck</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>HID-83</t>
+  </si>
+  <si>
+    <t>Patient can access footer along all pages throughout site</t>
+  </si>
+  <si>
+    <t>On every page you have access to the same footer</t>
+  </si>
+  <si>
+    <t>HID-80</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>Patient can see disclaimer in the footer</t>
+  </si>
+  <si>
+    <t>In the footer there is a disclaimer saying we are not medical professionals</t>
+  </si>
+  <si>
+    <t>Patient can send feedback through SYMCheck email or social media</t>
+  </si>
+  <si>
+    <t>Footer Links</t>
+  </si>
+  <si>
+    <t>Patient can click on any links in footer and be redirected to page</t>
+  </si>
+  <si>
+    <t>In the footer all links under SYMCheck, Resources, Support, and Contact Us take you to the correct page</t>
+  </si>
+  <si>
+    <t>SymBot responds on all patient inputs such as hello, what is chickenpox, how can I speak to creators of symcheck, etc.</t>
+  </si>
+  <si>
+    <t>Patient should be able to locate the link to upload image</t>
+  </si>
+  <si>
+    <t>Click link Upload Images or the Upload in NavBar to be redirected to upload page</t>
+  </si>
+  <si>
+    <t>Under the NavBar, there is the Nearest ER link. Clicking this button, you can access google maps to show hospitals nearby.</t>
+  </si>
+  <si>
+    <t>After submitting a photo for analysis, the Advance Prediction Page will appear</t>
+  </si>
+  <si>
+    <t>If someone doesn't want to answer the Advanced Page questions, then clicking the skip to results button will send them to the results page</t>
+  </si>
+  <si>
+    <t>Below the What is SYMCheck section you will see Meet the Team. With a list of our team members with pictures and the description of our roles.</t>
+  </si>
+  <si>
+    <t>In the footer there is a contact us section, where you can send feedback through an email or via social media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,14 +590,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -561,15 +632,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -603,22 +673,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17"/>
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -934,23 +1000,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:F41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="8"/>
-    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="72.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="72.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -961,12 +1027,12 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>0</v>
@@ -984,19 +1050,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="41" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>8</v>
@@ -1005,595 +1071,614 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="E27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="100" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="80" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="80" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="G33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1602,232 +1687,566 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="40" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="F38" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="F41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="F52" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="14" t="s">
+      <c r="C53" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-    </row>
-    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-    </row>
-    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="B54" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1840,6 +2259,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004E81107FE0A704B8458C943278B4E1F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5d7a2437a23173ad2037d1f1a5defc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcb18cd9-2614-41de-a438-05e8f58d2b4e" xmlns:ns4="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d70d1cc08310b67696d51f78b76f76" ns3:_="" ns4:_="">
     <xsd:import namespace="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
@@ -2050,22 +2484,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108A69B9-66F7-4144-B352-4997C65E7F0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
+    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265EAE24-5D6E-4DCE-929A-8ED3BA1E1FE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E89E5E-5991-4466-9B54-C4A54C1D7618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2082,29 +2526,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108A69B9-66F7-4144-B352-4997C65E7F0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
-    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265EAE24-5D6E-4DCE-929A-8ED3BA1E1FE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ProjectDocs/Artifacts/SymCheck Test Cases.xlsx
+++ b/ProjectDocs/Artifacts/SymCheck Test Cases.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Sprint7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/jw42299p_pace_edu/Documents/Spring2021/CS692/Sprint8/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E71BF8B-3DFD-4DEC-A75D-B8D3A87EFF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A37E4C09-4E5D-AD4A-A47E-2D85372AA05A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{198411F0-8BFD-344D-B836-3B43D3A16DD4}"/>
+    <workbookView xWindow="35840" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{198411F0-8BFD-344D-B836-3B43D3A16DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCases!$A$1:$G$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestCases!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="188">
   <si>
     <t>Test Cases</t>
   </si>
@@ -508,6 +508,90 @@
   </si>
   <si>
     <t>In the footer there is a contact us section, where you can send feedback through an email or via social media</t>
+  </si>
+  <si>
+    <t>HID-95</t>
+  </si>
+  <si>
+    <t>Patient will be able to easily understand how serious the illness is</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Normal Eye or Normal Skin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progress Bar </t>
+  </si>
+  <si>
+    <t>When completing results if patient has a Normal Eye or Normal Skin with a percentage of 66% of higher then the progress bar is green. Otherwise if the percentage is less than 66% ten the progress bar is yellow.</t>
+  </si>
+  <si>
+    <t>When completing results if patient has a Pink Eye or Chickenpox with a percentage of 66% of higher then the progress bar is red. Otherwise if the percentage is less than 66% ten the progress bar is yellow.</t>
+  </si>
+  <si>
+    <t>Pink Eye or Chickenpox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile </t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Advanced Results</t>
+  </si>
+  <si>
+    <t>Patient can access Homepage of SymCheck on their mobile device</t>
+  </si>
+  <si>
+    <t>Using www.symcheckapp.com on a mobile device you will be redirected to SymCheck Homepage</t>
+  </si>
+  <si>
+    <t>Home Buttons</t>
+  </si>
+  <si>
+    <t>Upload Images and Check Out A Quick Demo</t>
+  </si>
+  <si>
+    <t>Patient will be redirected to button links once they are clicked</t>
+  </si>
+  <si>
+    <t>Clicking on the Check Out A Quick Demo button the user is redirected to a video to show a demo of how to use the website. Clicking on the Upload Images button the user will be redirected to the Upload page where they can upload images for diagnosis</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t>Hi, chicken pox, pink eye, How can I get in touch with the Developers of SymCheck?, How do I upload an image?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient can access the Upload Page on their mobile devices </t>
+  </si>
+  <si>
+    <t>Using the NavBar or Clicking the Upload Images button on the homepage the user is redirected to the Upload Page</t>
+  </si>
+  <si>
+    <t>Upload, FAQ, and Results Pages</t>
+  </si>
+  <si>
+    <t>HID-64</t>
+  </si>
+  <si>
+    <t>chickenpox image, pink eye image</t>
+  </si>
+  <si>
+    <t>*P</t>
+  </si>
+  <si>
+    <t>*P - When uploading a photo taken directly from the camera, the image file will not upload</t>
+  </si>
+  <si>
+    <t>Home, Upload, FAQ, Advanced, Results, and About Us Pages</t>
+  </si>
+  <si>
+    <t>*P - In Mobile format for images to upload and work correctly they must remain under a certain file size. Also, depending on the mobile platform (android or apple), the photo will not upload properly</t>
   </si>
 </sst>
 </file>
@@ -639,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -678,6 +762,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1000,23 +1087,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F76" sqref="A76:F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="8"/>
-    <col min="3" max="3" width="39.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="72.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.125" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="72.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1114,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1050,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="41" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1071,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1115,7 +1202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1136,7 +1223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1145,7 +1232,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
@@ -1166,7 +1253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
@@ -1187,7 +1274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1210,7 +1297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>67</v>
       </c>
@@ -1233,7 +1320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1254,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -1275,7 +1362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1296,7 +1383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -1317,7 +1404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
@@ -1338,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>67</v>
       </c>
@@ -1359,7 +1446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -1382,7 +1469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1403,7 +1490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="3"/>
@@ -1412,7 +1499,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1454,7 +1541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1484,7 +1571,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>103</v>
       </c>
@@ -1504,7 +1591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>103</v>
       </c>
@@ -1527,7 +1614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>103</v>
       </c>
@@ -1550,7 +1637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>103</v>
       </c>
@@ -1571,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>103</v>
       </c>
@@ -1592,7 +1679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -1613,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -1634,7 +1721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>103</v>
       </c>
@@ -1657,7 +1744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>103</v>
       </c>
@@ -1678,7 +1765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1687,7 +1774,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -1708,7 +1795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>30</v>
       </c>
@@ -1728,7 +1815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="100" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -1748,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
@@ -1768,7 +1855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>30</v>
       </c>
@@ -1788,7 +1875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>30</v>
       </c>
@@ -1809,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
@@ -1830,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>30</v>
       </c>
@@ -1851,7 +1938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>30</v>
       </c>
@@ -1872,58 +1959,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
-        <v>93</v>
+    <row r="44" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>93</v>
       </c>
@@ -1931,20 +2022,20 @@
         <v>62</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>93</v>
       </c>
@@ -1952,113 +2043,113 @@
         <v>62</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="2" t="s">
-        <v>66</v>
+      <c r="C49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="2" t="s">
+      <c r="D52" s="5"/>
+      <c r="E52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>131</v>
-      </c>
       <c r="G52" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>127</v>
       </c>
@@ -2066,136 +2157,136 @@
         <v>128</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>152</v>
+      <c r="C55" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2" t="s">
+      <c r="D58" s="5"/>
+      <c r="E58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G58" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="20" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>140</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="15" t="s">
-        <v>148</v>
+      <c r="E60" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>140</v>
       </c>
@@ -2203,54 +2294,640 @@
         <v>144</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F63" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-    </row>
-    <row r="64" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-    </row>
-    <row r="65" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+      <c r="G63" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>176</v>
+      </c>
       <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="E65" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="100" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="E82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="80" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="40" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+    </row>
+    <row r="93" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A93:G93"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,21 +2936,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010004E81107FE0A704B8458C943278B4E1F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5d7a2437a23173ad2037d1f1a5defc1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcb18cd9-2614-41de-a438-05e8f58d2b4e" xmlns:ns4="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80d70d1cc08310b67696d51f78b76f76" ns3:_="" ns4:_="">
     <xsd:import namespace="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
@@ -2484,32 +3146,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108A69B9-66F7-4144-B352-4997C65E7F0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
-    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265EAE24-5D6E-4DCE-929A-8ED3BA1E1FE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E89E5E-5991-4466-9B54-C4A54C1D7618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2526,4 +3178,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{265EAE24-5D6E-4DCE-929A-8ED3BA1E1FE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108A69B9-66F7-4144-B352-4997C65E7F0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9cd9834e-9656-4a9f-bc4d-b5b5e1a3e387"/>
+    <ds:schemaRef ds:uri="bcb18cd9-2614-41de-a438-05e8f58d2b4e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>